--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1914746.820235328</v>
+        <v>-1917329.852305056</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>12.27673055432736</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>135.1999131863827</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.4856996582642</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>58.28185552386334</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>258.8619012583991</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>79.13824467254783</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1032,7 +1032,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494259</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95.23776695828053</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>42.02098853801314</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>363.4055856812036</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>166.5901478022488</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>75.27088892250295</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>135.0033547520754</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710039</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>133.1319933510083</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>158.208114238709</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>21.90286287505357</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>33.45472478220918</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>78.91051008678039</v>
       </c>
       <c r="E19" t="n">
-        <v>77.9361200972557</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>89.43437620021425</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856548</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,16 +2296,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>117.46652813674</v>
       </c>
     </row>
     <row r="23">
@@ -2321,13 +2321,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>74.5647487423339</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>212.5602966632233</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0385136149756</v>
+        <v>171.038513614975</v>
       </c>
       <c r="C28" t="n">
-        <v>158.4533545316662</v>
+        <v>158.4533545316655</v>
       </c>
       <c r="D28" t="n">
-        <v>139.8220064512507</v>
+        <v>96.21046813105526</v>
       </c>
       <c r="E28" t="n">
-        <v>137.6404960796075</v>
+        <v>137.6404960796068</v>
       </c>
       <c r="F28" t="n">
-        <v>136.6275814559696</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7306717253072</v>
+        <v>156.7306717253065</v>
       </c>
       <c r="H28" t="n">
-        <v>131.5012462792622</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160386</v>
+        <v>72.47236975160318</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>172.2328194346829</v>
+        <v>172.2328194346823</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>208.6119837603259</v>
       </c>
       <c r="U28" t="n">
-        <v>174.262625527169</v>
+        <v>277.3910078222818</v>
       </c>
       <c r="V28" t="n">
-        <v>243.3441767568663</v>
+        <v>243.3441767568657</v>
       </c>
       <c r="W28" t="n">
-        <v>277.7295317696293</v>
+        <v>277.7295317696286</v>
       </c>
       <c r="X28" t="n">
-        <v>216.9161888220755</v>
+        <v>216.9161888220748</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7911867851331</v>
+        <v>209.7911867851325</v>
       </c>
     </row>
     <row r="29">
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652724</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3661,7 +3661,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
         <v>124.3308255261727</v>
@@ -3670,16 +3670,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796261</v>
+        <v>1175.344218980305</v>
       </c>
       <c r="C2" t="n">
-        <v>909.3697179459625</v>
+        <v>1175.344218980305</v>
       </c>
       <c r="D2" t="n">
-        <v>909.3697179459625</v>
+        <v>817.078520373555</v>
       </c>
       <c r="E2" t="n">
-        <v>523.5814653477182</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M2" t="n">
         <v>1573.77673900139</v>
@@ -4352,7 +4352,7 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
         <v>3215.315153136267</v>
@@ -4361,19 +4361,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1561.944059044427</v>
       </c>
     </row>
     <row r="3">
@@ -4398,22 +4398,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218343</v>
+        <v>680.3679798527296</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218343</v>
+        <v>511.4317969248227</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>361.315157512487</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4498,40 +4498,40 @@
         <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886954</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068852</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>862.0164446829693</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>862.0164446829693</v>
       </c>
       <c r="T4" t="n">
-        <v>699.1203903877106</v>
+        <v>862.0164446829693</v>
       </c>
       <c r="U4" t="n">
-        <v>410.0175235133541</v>
+        <v>862.0164446829693</v>
       </c>
       <c r="V4" t="n">
-        <v>410.0175235133541</v>
+        <v>862.0164446829693</v>
       </c>
       <c r="W4" t="n">
-        <v>410.0175235133541</v>
+        <v>862.0164446829693</v>
       </c>
       <c r="X4" t="n">
-        <v>410.0175235133541</v>
+        <v>862.0164446829693</v>
       </c>
       <c r="Y4" t="n">
-        <v>189.224944369824</v>
+        <v>862.0164446829693</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1899.13013587303</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C5" t="n">
-        <v>1530.167618932618</v>
+        <v>1475.375487024176</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2675.869307912963</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W5" t="n">
-        <v>2675.869307912963</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="X5" t="n">
-        <v>2675.869307912963</v>
+        <v>2621.077176004521</v>
       </c>
       <c r="Y5" t="n">
-        <v>2285.729975937151</v>
+        <v>2230.937844028709</v>
       </c>
     </row>
     <row r="6">
@@ -4635,46 +4635,46 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>382.1280466398576</v>
+        <v>700.0944266746549</v>
       </c>
       <c r="C7" t="n">
-        <v>382.1280466398576</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D7" t="n">
-        <v>382.1280466398576</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877115</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>699.1203903877115</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>699.1203903877115</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>699.1203903877115</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>699.1203903877115</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>478.3278112441814</v>
+        <v>700.0944266746549</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1934.208022973022</v>
+        <v>2255.174438931363</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1886.211921990951</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1527.946223384201</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1142.157970785957</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>731.1720659963491</v>
       </c>
       <c r="G8" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>3047.042276568338</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W8" t="n">
-        <v>2694.273621298224</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2320.807863037144</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y8" t="n">
-        <v>2320.807863037144</v>
+        <v>2641.774278995485</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>381.1049005553748</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="C10" t="n">
-        <v>381.1049005553748</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4990,22 +4990,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>562.7533653856145</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>562.7533653856145</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>562.7533653856145</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y10" t="n">
-        <v>562.7533653856145</v>
+        <v>472.1048757766374</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551871</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852251</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.83315239859</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492574</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.25260147478</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612122999</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852884</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591805</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615993</v>
       </c>
     </row>
     <row r="12">
@@ -5106,34 +5106,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>718.5507239167108</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="C13" t="n">
-        <v>549.6145409888042</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797737</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2220.111203833967</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2000.509738856908</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1711.434512201106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1456.750023995219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1167.332853958258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>939.3433030602409</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y13" t="n">
-        <v>718.5507239167108</v>
+        <v>916.2946447138407</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168603</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="N15" t="n">
-        <v>2149.810879820877</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400711</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121642</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121642</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121642</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>198.0274703142538</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G16" t="n">
-        <v>198.0274703142538</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
         <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2413.170432285098</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2193.56896730804</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1904.493740652237</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1649.80925244635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1360.39208240939</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713841</v>
+        <v>1132.402531511373</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703108</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,16 +5534,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466572</v>
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5604,16 +5604,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647281</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368213</v>
+        <v>564.518882789223</v>
       </c>
       <c r="D19" t="n">
-        <v>481.4479471244856</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949679</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="20">
@@ -5744,19 +5744,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5771,28 +5771,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>315.9123021921482</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>315.9123021921482</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>878.3568999154073</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778172</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654816</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830885</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851782</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797745</v>
@@ -5920,40 +5920,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956955</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154073</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5969,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536376</v>
+        <v>950.1865537761981</v>
       </c>
       <c r="C25" t="n">
-        <v>705.932442825731</v>
+        <v>781.2503708482913</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133953</v>
+        <v>631.1337314359555</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310022</v>
+        <v>483.2206378535624</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>336.330690355652</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>169.1345910705314</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797189</v>
@@ -6160,37 +6160,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868272</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662385</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727407</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583877</v>
+        <v>950.1865537761981</v>
       </c>
     </row>
     <row r="26">
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6303,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>740.5562989961525</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1036.491134032484</v>
+        <v>721.6018753906353</v>
       </c>
       <c r="C28" t="n">
-        <v>876.4372405661549</v>
+        <v>561.5479819243066</v>
       </c>
       <c r="D28" t="n">
-        <v>735.2028906153965</v>
+        <v>464.3656908828366</v>
       </c>
       <c r="E28" t="n">
-        <v>596.1720864945809</v>
+        <v>325.3348867620221</v>
       </c>
       <c r="F28" t="n">
-        <v>458.1644284582479</v>
+        <v>325.3348867620221</v>
       </c>
       <c r="G28" t="n">
-        <v>299.8506186347053</v>
+        <v>167.0210769384801</v>
       </c>
       <c r="H28" t="n">
-        <v>167.0210769384809</v>
+        <v>167.0210769384801</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>182.7582133795877</v>
+        <v>182.7582133795883</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064183</v>
+        <v>453.1530078064196</v>
       </c>
       <c r="L28" t="n">
-        <v>852.2571338836505</v>
+        <v>852.2571338836524</v>
       </c>
       <c r="M28" t="n">
-        <v>1282.972368515977</v>
+        <v>1282.97236851598</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.087772077277</v>
+        <v>1709.087772077281</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.322584687554</v>
+        <v>2087.322584687558</v>
       </c>
       <c r="P28" t="n">
-        <v>2388.703572162405</v>
+        <v>2388.70357216241</v>
       </c>
       <c r="Q28" t="n">
-        <v>2516.607338790596</v>
+        <v>2516.607338790602</v>
       </c>
       <c r="R28" t="n">
-        <v>2516.607338790596</v>
+        <v>2516.607338790602</v>
       </c>
       <c r="S28" t="n">
-        <v>2342.634793907078</v>
+        <v>2342.634793907084</v>
       </c>
       <c r="T28" t="n">
-        <v>2342.634793907078</v>
+        <v>2131.915618391603</v>
       </c>
       <c r="U28" t="n">
-        <v>2166.611939839232</v>
+        <v>1851.722681197379</v>
       </c>
       <c r="V28" t="n">
-        <v>1920.809741094923</v>
+        <v>1605.920482453071</v>
       </c>
       <c r="W28" t="n">
-        <v>1640.274860519539</v>
+        <v>1325.385601877688</v>
       </c>
       <c r="X28" t="n">
-        <v>1421.1675990831</v>
+        <v>1106.278340441249</v>
       </c>
       <c r="Y28" t="n">
-        <v>1209.257309401147</v>
+        <v>894.3680507592969</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6464,7 +6464,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6549,19 +6549,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345491</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384035</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,7 +6643,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
         <v>2438.456847547834</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6789,16 +6789,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2223.769289033212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2532.719182723414</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,25 +6880,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6938,7 +6938,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1552.432392194325</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O36" t="n">
-        <v>2104.342122433612</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,10 +7093,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954152</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311325</v>
@@ -7120,25 +7120,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
         <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7497,19 +7497,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,19 +7582,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7646,10 +7646,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7737,16 +7737,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>352.9961612166802</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>251.0380254696709</v>
       </c>
     </row>
     <row r="3">
@@ -22702,19 +22702,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.3462805236731</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>30.65029714618399</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819496</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>34.1148277476195</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>22.81817176293564</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>118.3918499711703</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>147.5715612194354</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>69.70496293143196</v>
       </c>
       <c r="E19" t="n">
-        <v>68.49784254931348</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>77.81244489841353</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>101.1181252153548</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>65.72996410388987</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856548</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>73.62417772602083</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>43.61153832019474</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>136.6275814559689</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.5012462792616</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014316002</v>
+        <v>57.58178014315934</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603266</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>103.1283822951135</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.308828613822877e-12</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1335037.911453023</v>
+        <v>1335037.911453024</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82260.24434218735</v>
+        <v>82260.24434218736</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26332,16 +26332,16 @@
         <v>100893.3249612508</v>
       </c>
       <c r="I2" t="n">
-        <v>100893.3249612508</v>
+        <v>100893.3249612507</v>
       </c>
       <c r="J2" t="n">
-        <v>101522.2547944397</v>
+        <v>101522.2547944396</v>
       </c>
       <c r="K2" t="n">
         <v>102630.2212330355</v>
       </c>
       <c r="L2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="M2" t="n">
         <v>102630.2212330354</v>
@@ -26350,10 +26350,10 @@
         <v>102630.2212330354</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
     </row>
     <row r="3">
@@ -26372,40 +26372,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.263256414560601e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.9756508468</v>
+        <v>224565.9756508475</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.94474006247</v>
+        <v>12392.94474006191</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551164</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569287</v>
+        <v>7034.773253569907</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006249</v>
+        <v>12392.94474006194</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189202</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="I4" t="n">
         <v>16046.583971892</v>
       </c>
       <c r="J4" t="n">
-        <v>18940.07269946529</v>
+        <v>18940.07269946553</v>
       </c>
       <c r="K4" t="n">
         <v>24037.44323498545</v>
       </c>
       <c r="L4" t="n">
-        <v>24037.44323498547</v>
+        <v>24037.44323498545</v>
       </c>
       <c r="M4" t="n">
         <v>24037.44323498544</v>
       </c>
       <c r="N4" t="n">
+        <v>24037.44323498543</v>
+      </c>
+      <c r="O4" t="n">
         <v>24037.44323498544</v>
       </c>
-      <c r="O4" t="n">
-        <v>24037.44323498543</v>
-      </c>
       <c r="P4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498545</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26491,7 +26491,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101861.787764725</v>
+        <v>101861.7877647251</v>
       </c>
       <c r="K5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1355003.088935805</v>
+        <v>-1355410.488473621</v>
       </c>
       <c r="C6" t="n">
         <v>-98900.46343241044</v>
       </c>
       <c r="D6" t="n">
-        <v>-98900.46343241047</v>
+        <v>-98900.46343241048</v>
       </c>
       <c r="E6" t="n">
-        <v>-341688.2506419034</v>
+        <v>-341722.9885673385</v>
       </c>
       <c r="F6" t="n">
-        <v>-16275.78883454832</v>
+        <v>-16310.52675998415</v>
       </c>
       <c r="G6" t="n">
-        <v>-16275.78883454831</v>
+        <v>-16310.52675998404</v>
       </c>
       <c r="H6" t="n">
-        <v>-16275.7888345484</v>
+        <v>-16310.52675998406</v>
       </c>
       <c r="I6" t="n">
-        <v>-16275.78883454831</v>
+        <v>-16310.52675998406</v>
       </c>
       <c r="J6" t="n">
-        <v>-243845.5813205975</v>
+        <v>-243867.7406493704</v>
       </c>
       <c r="K6" t="n">
-        <v>-36964.28259592786</v>
+        <v>-36964.2825959273</v>
       </c>
       <c r="L6" t="n">
-        <v>-24571.33785586542</v>
+        <v>-24571.33785586541</v>
       </c>
       <c r="M6" t="n">
-        <v>-109626.3657913772</v>
+        <v>-109626.365791377</v>
       </c>
       <c r="N6" t="n">
-        <v>-24571.33785586541</v>
+        <v>-24571.33785586551</v>
       </c>
       <c r="O6" t="n">
-        <v>-31606.11110943469</v>
+        <v>-31606.11110943527</v>
       </c>
       <c r="P6" t="n">
-        <v>-36964.28259592791</v>
+        <v>-36964.28259592733</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961666</v>
+        <v>8.793466566962348</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203975</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26738,16 +26738,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26923,16 +26923,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961612</v>
+        <v>8.793466566962348</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507808</v>
+        <v>15.49118092507738</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961609</v>
+        <v>8.793466566962383</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507811</v>
+        <v>15.49118092507743</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973549</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973549</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27160,16 +27160,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961612</v>
+        <v>8.793466566962348</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507808</v>
+        <v>15.49118092507738</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973549</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>95.82114036228381</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>248.6140137975871</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.59421322365677</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>125.2258325606147</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>47.51613997224985</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27910,13 +27910,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>161.1621106678861</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>91.97593217612489</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28062,22 +28062,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>117.1342885717526</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3.714148988365195e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.003548912191351e-11</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.012949724099599e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="21">
@@ -29041,13 +29041,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566961666</v>
+        <v>8.793466566962348</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566961666</v>
+        <v>8.793466566962348</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566961666</v>
+        <v>8.793466566962348</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566961666</v>
+        <v>8.793466566962348</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566961666</v>
+        <v>8.793466566962348</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566961666</v>
+        <v>8.793466566962348</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566961666</v>
+        <v>8.793466566962348</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566961666</v>
+        <v>8.793466566962348</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566961666</v>
+        <v>8.793466566962348</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566961666</v>
+        <v>8.793466566962348</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566961666</v>
+        <v>8.793466566962348</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566961666</v>
+        <v>8.793466566962348</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566961666</v>
+        <v>8.793466566962348</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566961666</v>
+        <v>8.793466566962348</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566961666</v>
+        <v>8.793466566962348</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566961666</v>
+        <v>8.793466566962348</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566961666</v>
+        <v>8.793466566962348</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566961666</v>
+        <v>8.793466566962348</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566961666</v>
+        <v>8.793466566962348</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566961666</v>
+        <v>8.793466566962348</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566961666</v>
+        <v>8.793466566962348</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566961666</v>
+        <v>8.793466566962348</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566961666</v>
+        <v>8.793466566962348</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566961666</v>
+        <v>8.793466566962348</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31610,7 +31610,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532633</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3420541567482</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145783</v>
       </c>
       <c r="O15" t="n">
-        <v>549.9198891312103</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32245,7 +32245,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
         <v>926.5868626460027</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O18" t="n">
-        <v>333.9544784328825</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>360.3952288121461</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,7 +32795,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>202.2352659288688</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,31 +33023,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>163.4402738502018</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>429.5828357723605</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>166.2270851128133</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33676,7 +33676,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33734,7 +33734,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P36" t="n">
-        <v>351.6082511035024</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>616.375287159485</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34217,13 +34217,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O42" t="n">
-        <v>567.7870775946151</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>567.7870775946151</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>274.296024231245</v>
       </c>
       <c r="N12" t="n">
-        <v>97.00034207341486</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066253</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>274.296024231245</v>
       </c>
       <c r="O15" t="n">
-        <v>407.3236446867659</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O18" t="n">
-        <v>191.358233988438</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>222.5537898377871</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,7 +36443,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,10 +36452,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>68.26085851453861</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,31 +36671,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991503</v>
+        <v>89.83994982991571</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765966</v>
+        <v>273.1260549765973</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860931</v>
+        <v>403.1354808860938</v>
       </c>
       <c r="M28" t="n">
-        <v>435.0658935680068</v>
+        <v>435.0658935680075</v>
       </c>
       <c r="N28" t="n">
-        <v>430.4195995568691</v>
+        <v>430.4195995568698</v>
       </c>
       <c r="O28" t="n">
-        <v>382.0553662730071</v>
+        <v>382.0553662730078</v>
       </c>
       <c r="P28" t="n">
-        <v>304.4252398735866</v>
+        <v>304.4252398735873</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.19572386686</v>
+        <v>129.1957238668607</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>29.46586643587157</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>295.6084283580303</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,7 +37382,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P36" t="n">
-        <v>217.6338436891722</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>473.7790427150405</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37716,7 +37716,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37865,13 +37865,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O42" t="n">
-        <v>425.1908331501707</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>425.1908331501707</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
